--- a/RSVP_visual_now/Results/RSVP_spatial_cue_ISI_presentation/RSVP_spatial_cue_ISI_presentationsubject_level_stats.xlsx
+++ b/RSVP_visual_now/Results/RSVP_spatial_cue_ISI_presentation/RSVP_spatial_cue_ISI_presentationsubject_level_stats.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,110 @@
         <v>0.01769911504424779</v>
       </c>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.08620689655172414</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.008474576271186441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.1185185185185185</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1467889908256881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1129032258064516</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.140625</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.1810344827586207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/RSVP_visual_now/Results/RSVP_spatial_cue_ISI_presentation/RSVP_spatial_cue_ISI_presentationsubject_level_stats.xlsx
+++ b/RSVP_visual_now/Results/RSVP_spatial_cue_ISI_presentation/RSVP_spatial_cue_ISI_presentationsubject_level_stats.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>subject</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>N_l_minus_r_10deg</t>
+  </si>
+  <si>
+    <t>past</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -437,7 +443,7 @@
       <c r="E2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
         <v>4.7</v>
       </c>
       <c r="G2" t="n">
@@ -446,8 +452,11 @@
       <c r="H2" t="n">
         <v>-0.008474576271186441</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -472,8 +481,11 @@
       <c r="H3" t="n">
         <v>0.2592592592592592</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="H4" t="n">
         <v>-0.01785714285714286</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -524,8 +539,11 @@
       <c r="H5" t="n">
         <v>0.2181818181818182</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -550,8 +568,11 @@
       <c r="H6" t="n">
         <v>-0.03571428571428571</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -576,8 +597,11 @@
       <c r="H7" t="n">
         <v>0.1171171171171171</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -593,7 +617,7 @@
       <c r="E8" t="n">
         <v>0.1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" t="n">
         <v>4.76</v>
       </c>
       <c r="G8" t="n">
@@ -602,8 +626,11 @@
       <c r="H8" t="n">
         <v>-0.09523809523809523</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -628,8 +655,11 @@
       <c r="H9" t="n">
         <v>-0.1724137931034483</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -654,8 +684,11 @@
       <c r="H10" t="n">
         <v>-0.02586206896551724</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -671,7 +704,7 @@
       <c r="E11" t="n">
         <v>0.01</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" t="n">
         <v>4.89</v>
       </c>
       <c r="G11" t="n">
@@ -680,8 +713,11 @@
       <c r="H11" t="n">
         <v>-0.03478260869565217</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -706,8 +742,11 @@
       <c r="H12" t="n">
         <v>-0.3174603174603174</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -732,8 +771,11 @@
       <c r="H13" t="n">
         <v>-0.09401709401709402</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="H14" t="n">
         <v>0.048</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -784,8 +829,11 @@
       <c r="H15" t="n">
         <v>0.01769911504424779</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -810,8 +858,11 @@
       <c r="H16" t="n">
         <v>0.008474576271186441</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -836,8 +887,11 @@
       <c r="H17" t="n">
         <v>0.1467889908256881</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -862,8 +916,11 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -887,6 +944,386 @@
       </c>
       <c r="H19" t="n">
         <v>-0.1810344827586207</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.2377049180327869</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.08870967741935484</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1916666666666667</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1395348837209302</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.03418803418803419</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.078125</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.3834586466165413</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5118110236220472</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.1705426356589147</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.07377049180327869</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.1008403361344538</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1136363636363636</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.4242424242424243</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.3939393939393939</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0873015873015873</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1194029850746269</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.246031746031746</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.2295081967213115</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
